--- a/publication/analyses/outputs/pubfigs/global-averaged_performance.xlsx
+++ b/publication/analyses/outputs/pubfigs/global-averaged_performance.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9564986125021606</v>
+        <v>0.95649861250216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="D2" t="n">
         <v>5104</v>
@@ -512,32 +512,32 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5248562840743024</v>
+        <v>0.5248562840851071</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4794191554616417</v>
+        <v>0.4794191554825576</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7108564169759168</v>
+        <v>0.7108564169980006</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4368212141085447</v>
+        <v>0.4368212139013902</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8343438252010389</v>
+        <v>0.8343438251113983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SPCT</t>
+          <t>GDPT</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.9292278968751633</v>
       </c>
       <c r="C3" t="n">
-        <v>1.615307277456598</v>
+        <v>1.615307186802609</v>
       </c>
       <c r="D3" t="n">
         <v>1977</v>
@@ -549,19 +549,19 @@
         <v>0.3566017316017316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.338357117762198</v>
+        <v>0.3383571169547176</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4136789052785849</v>
+        <v>0.4136789058781119</v>
       </c>
       <c r="I3" t="n">
-        <v>0.534430328305599</v>
+        <v>0.5344303282584365</v>
       </c>
       <c r="J3" t="n">
-        <v>1.055971845666002</v>
+        <v>1.055971845676007</v>
       </c>
       <c r="K3" t="n">
-        <v>1.183508476797734</v>
+        <v>1.183508476785364</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/pubfigs/global-averaged_performance.xlsx
+++ b/publication/analyses/outputs/pubfigs/global-averaged_performance.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.95649861250216</v>
+        <v>0.9564986125021595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="D2" t="n">
         <v>5104</v>
@@ -512,19 +512,19 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5248562840851071</v>
+        <v>0.5248562840802717</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4794191554825576</v>
+        <v>0.4794191554409942</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7108564169980006</v>
+        <v>0.7108564169663991</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4368212139013902</v>
+        <v>0.4368212140334995</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8343438251113983</v>
+        <v>0.8343438251536398</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         <v>0.9292278968751633</v>
       </c>
       <c r="C3" t="n">
-        <v>1.615307186802609</v>
+        <v>1.615307433936272</v>
       </c>
       <c r="D3" t="n">
         <v>1977</v>
@@ -549,19 +549,19 @@
         <v>0.3566017316017316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3383571169547176</v>
+        <v>0.3383571179462308</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4136789058781119</v>
+        <v>0.4136789054127073</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5344303282584365</v>
+        <v>0.5344303285259315</v>
       </c>
       <c r="J3" t="n">
-        <v>1.055971845676007</v>
+        <v>1.055971845592578</v>
       </c>
       <c r="K3" t="n">
-        <v>1.183508476785364</v>
+        <v>1.183508476831717</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/pubfigs/global-averaged_performance.xlsx
+++ b/publication/analyses/outputs/pubfigs/global-averaged_performance.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9564986125021595</v>
+        <v>0.9564986125021606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="D2" t="n">
         <v>5104</v>
@@ -512,19 +512,19 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5248562840802717</v>
+        <v>0.5248562841031512</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4794191554409942</v>
+        <v>0.4794191554360129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7108564169663991</v>
+        <v>0.7108564169799325</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4368212140334995</v>
+        <v>0.436821214158867</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8343438251536398</v>
+        <v>0.8343438252308064</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         <v>0.9292278968751633</v>
       </c>
       <c r="C3" t="n">
-        <v>1.615307433936272</v>
+        <v>1.615307630718741</v>
       </c>
       <c r="D3" t="n">
         <v>1977</v>
@@ -549,19 +549,19 @@
         <v>0.3566017316017316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3383571179462308</v>
+        <v>0.3383571183786774</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4136789054127073</v>
+        <v>0.4136789046926929</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5344303285259315</v>
+        <v>0.5344303282423897</v>
       </c>
       <c r="J3" t="n">
-        <v>1.055971845592578</v>
+        <v>1.055971845824642</v>
       </c>
       <c r="K3" t="n">
-        <v>1.183508476831717</v>
+        <v>1.183508476910736</v>
       </c>
     </row>
   </sheetData>
